--- a/勉強_Vue_202005xlsx.xlsx
+++ b/勉強_Vue_202005xlsx.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t xml:space="preserve">以下のツールで取り込み</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">作成手順</t>
   </si>
   <si>
+    <t xml:space="preserve">GIT連携用</t>
+  </si>
+  <si>
     <t xml:space="preserve">new repository</t>
   </si>
   <si>
@@ -64,13 +67,16 @@
     <t xml:space="preserve">GIT – プロジェクトの親フォルダー内のリポジトリーを使用または作成 – リポジトリーの作成 – 完了</t>
   </si>
   <si>
+    <t xml:space="preserve">- GitHubより、Gitアドレスをコピーしておく</t>
+  </si>
+  <si>
     <t xml:space="preserve">ウィンドウ - パースペクティブ – Git</t>
   </si>
   <si>
-    <t xml:space="preserve">- GitHubより、Gitアドレスをコピーしておく</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リポジトリー・パスまたは URI の貼り付け</t>
+    <t xml:space="preserve">自分のプロジェクトを広げ、「リモートの作成」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">→「フェッチの構成」 - 「URI 変更（Gitアドレス） - 保存とフェッチ」</t>
   </si>
   <si>
     <t xml:space="preserve">Bootstrap取り込み</t>
@@ -155,6 +161,12 @@
   </si>
   <si>
     <t xml:space="preserve">})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">フォーマッター取り込み</t>
+  </si>
+  <si>
+    <t xml:space="preserve">npm install --save-dev prettier</t>
   </si>
 </sst>
 </file>
@@ -210,12 +222,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -308,12 +326,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,15 +451,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>248040</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>118800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="画像 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9781200" y="2761200"/>
+          <a:ext cx="4295160" cy="2213280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L55"/>
+  <dimension ref="A2:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N35" activeCellId="0" sqref="N35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,233 +540,387 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="1" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="1" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="2" t="s">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="3" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="6" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D37" s="8" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="6" t="s">
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="8" t="s">
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="8" t="s">
+      <c r="L40" s="8"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="6"/>
-      <c r="L42" s="7"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="6"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="6" t="s">
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="7"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L46" s="7"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="6"/>
-      <c r="L47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="L49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L51" s="7"/>
+      <c r="L51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L52" s="7"/>
+      <c r="L52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L53" s="7"/>
+      <c r="L53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="7"/>
+      <c r="L54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="11"/>
-    </row>
+      <c r="D55" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="8"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L56" s="8"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D63" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -711,5 +929,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>